--- a/nciavarella_custom/static/xlsx_data/Prospetto Ore Gennaio 24.xlsx
+++ b/nciavarella_custom/static/xlsx_data/Prospetto Ore Gennaio 24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="170">
   <si>
     <t>Data</t>
   </si>
@@ -34,10 +34,10 @@
     <t>Valore monetario</t>
   </si>
   <si>
-    <t>2EsseTi Srl - Odoo (104,25 Ore) [2293,50 €]</t>
-  </si>
-  <si>
-    <t>Media Dressing (7,75 Ore) [€ 170,50]</t>
+    <t>2EsseTi Srl - Odoo (123,00 Ore) [2.706,00 €]</t>
+  </si>
+  <si>
+    <t>Media Dressing (7,75 Ore) [170,50 €]</t>
   </si>
   <si>
     <t>16/01/2024</t>
@@ -109,18 +109,33 @@
     <t>Assistenza Marco Sessolo per implementazione switcher cambio lingua su landing page Media Dressing</t>
   </si>
   <si>
-    <t>R. J. Brown (27,5 Ore) [€ 605,00]</t>
+    <t>R. J. Brown (32,00 Ore) [704,00 €]</t>
+  </si>
+  <si>
+    <t>09/01/2024</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione personalizzazione template modale di inserimento prodotti in quotation</t>
+  </si>
+  <si>
+    <t>10/01/2024</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>16:15</t>
+  </si>
+  <si>
+    <t>Assistenza Marco Sessolo per configurazione database locale per gli sviluppi da effettuare secondo le richieste di RJBrown</t>
   </si>
   <si>
     <t>11/01/2024</t>
   </si>
   <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
     <t>Sviluppo e implementazione immagine in attributo colore, composizione in griglie backend e documenti, display name secondo esigenza</t>
   </si>
   <si>
@@ -229,7 +244,16 @@
     <t>13:45</t>
   </si>
   <si>
-    <t>Modulo Fluent Fashion (17,75 Ore) [€ 390,50]</t>
+    <t>Modulo Fluent Fashion (20,75 Ore) [456,50 €]</t>
+  </si>
+  <si>
+    <t>08/01/2024</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione visualizzazione griglie frontend per prodotti extra-fashion</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione aggiornamento griglie frontend e aggiornamento controller per il settaggio delle quantità prodotto presenti in carrello (se ordine confermato)</t>
   </si>
   <si>
     <t>12/01/2024</t>
@@ -271,7 +295,7 @@
     <t>Analisi per installazione e sviluppo integrazione Odoo - Visidea per l'e-commerce di Fluent Fashion</t>
   </si>
   <si>
-    <t>Luigi Amico (1,75 Ore) [€ 38,50]</t>
+    <t>Luigi Amico (1,75 Ore) [38,50 €]</t>
   </si>
   <si>
     <t>14:45</t>
@@ -292,7 +316,7 @@
     <t>Assistenza Ilario De Sario per configurazione gruppi e coni di visibilità Odoo su ambiente Luigi Amico</t>
   </si>
   <si>
-    <t>Solware (7,75 Ore) [€ 170,50]</t>
+    <t>Solware (7,75 Ore) [170,50 €]</t>
   </si>
   <si>
     <t>Analisi congiunta con Filippo Saviori per sistemazione sequenze multi-company Odoo - Solware</t>
@@ -322,15 +346,15 @@
     <t>Sviluppo e implementazione change request per associazione prodotti con fornitori multipli e ricerca vendite per numero offerta</t>
   </si>
   <si>
-    <t>TerraManiArte (5,0 Ore) [€ 110,00]</t>
+    <t>TerraManiArte (6,00 Ore) [132,00 €]</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione controller e vista per l'accettazione del preventivo da parte dei fornitori</t>
   </si>
   <si>
     <t>16:45</t>
   </si>
   <si>
-    <t>Sviluppo e implementazione controller e vista per l'accettazione del preventivo da parte dei fornitori</t>
-  </si>
-  <si>
     <t>Sviluppo e implementazione controllo quantità inserita su e-commerce se minore della quantità minima del prodotto</t>
   </si>
   <si>
@@ -346,7 +370,22 @@
     <t>Assistenza Ilario De Sario per configurazione azioni pianificate su DB Odoo.sh TerraManiArte</t>
   </si>
   <si>
-    <t>BCalm (15,75 Ore) [€ 346,50]</t>
+    <t>BCalm (19,75 Ore) [434,50 €]</t>
+  </si>
+  <si>
+    <t>02/01/2024</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>Configurazione e sistemazione ambiente BCalm test per allineamento e risoluzione conflitti relativi a nuove modifiche caricate</t>
+  </si>
+  <si>
+    <t>Assistenza congiunta con Nicola Cetrulo per sviluppo e implementazione tema BCalm con Marco Sessolo</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione voci di menu backend per le recensioni cliente inviate dal sito web</t>
   </si>
   <si>
     <t>Sviluppo e implementazione gestione nome categoria e nome prodotto in visualizzazione e-commerce</t>
@@ -391,7 +430,7 @@
     <t>Sviluppo e implementazione aggiornamento layout di visualizzazione e di modifica prodotti in carrello e-commerce</t>
   </si>
   <si>
-    <t>Interno (6,25 Ore) [€ 137,50]</t>
+    <t>Interno (6,25 Ore) [137,50 €]</t>
   </si>
   <si>
     <t>Assistenza Ilario De Sario per utilizzo GitHub per aggiornamento submodules e allineamento ambienti Odoo.sh</t>
@@ -415,13 +454,16 @@
     <t>Assistenza Giulia De Marco per creazione script di aggiornamento record relazionali Odoo</t>
   </si>
   <si>
-    <t>Pharmagel - Progetto Offerta (1,75 Ore) [€ 38,50]</t>
+    <t>Pharmagel - Progetto Offerta (1,75 Ore) [38,50 €]</t>
   </si>
   <si>
     <t>Sviluppo e implementazione script per caricamento dati iniziali di sezioni, sottosezioni e prodotti in ambiente di Staging</t>
   </si>
   <si>
-    <t>Pharmagel (3,0 Ore) [€ 66,00]</t>
+    <t>Pharmagel (4,25 Ore) [93,50 €]</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione soluzione per l'invisibilità dinamica delle informazioni relative all'indirizzo all'interno delle intestazioni dei documenti che non sono fatture (cliente / fornitore)</t>
   </si>
   <si>
     <t>Sviluppo e implementazione aggiornamento per il corretto settaggio e la conferma degli ordini di produzione con pickings collegati aventi DDT</t>
@@ -436,13 +478,13 @@
     <t>Analisi congiunta con Filippo Saviori per individuazione problematica di configurazione delle posizioni fiscali su ambiente Pharmagel</t>
   </si>
   <si>
-    <t>Folino Food - E-commerce Alliance (1,5 Ore) [€ 33,00]</t>
+    <t>Folino Food - E-commerce Alliance (1,50 Ore) [33,00 €]</t>
   </si>
   <si>
     <t>Analisi, configurazione e parametrizzazione file di configurazione Odoo per DB importato e migrato in Odoo 16.0 EE da Odoo 14.0 EE</t>
   </si>
   <si>
-    <t>Filver - FF (8,0 Ore) [€ 176,00]</t>
+    <t>Filver - FF (8,00 Ore) [176,00 €]</t>
   </si>
   <si>
     <t>Sviluppo e implementazione gestione griglie per prodotti non fashion e/o con configuratore in backend, frontend e documenti</t>
@@ -463,10 +505,25 @@
     <t>Sviluppo e implementazione aggiornamento griglie in stampe OdV per visualizzazione salto pagina</t>
   </si>
   <si>
-    <t>ISAAC (0,5 Ore) [€ 11,00]</t>
+    <t>ISAAC (0,50 Ore) [11,00 €]</t>
   </si>
   <si>
     <t>Configurazione server di posta elettronica in uscita e server di posta PEC fatture elettroniche in uscita per invio mail standard da Odoo</t>
+  </si>
+  <si>
+    <t>ME-GA Plastic (3,25 Ore) [71,50 €]</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione modifiche indirizzi in layout stampe OdV, menu e layout frontend portale, labels portale in italiano e in inglese</t>
+  </si>
+  <si>
+    <t>Assistenza Marco Sessolo per configurazione database locale per gli sviluppi da effettuare secondo le richieste di MegaPlastic</t>
+  </si>
+  <si>
+    <t>Necte (1,75 Ore) [38,50 €]</t>
+  </si>
+  <si>
+    <t>Sviluppo e implementazione modulo custom per l'associazione di N progetti ad una riga OdV sulla base della quantità del prodotto</t>
   </si>
 </sst>
 </file>
@@ -831,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,179 +1112,179 @@
         <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="E13" s="6">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="F13" s="7">
-        <v>55</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F14" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F15" s="7">
-        <v>22</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="E16" s="6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="7">
-        <v>49.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="E17" s="6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F17" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E18" s="6">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F18" s="7">
-        <v>16.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6">
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="F19" s="7">
-        <v>16.5</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E20" s="6">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F20" s="7">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E21" s="6">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F21" s="7">
-        <v>5.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1235,13 +1292,13 @@
         <v>54</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="E22" s="6">
         <v>0.75</v>
@@ -1255,30 +1312,30 @@
         <v>54</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="6">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F23" s="7">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>62</v>
@@ -1292,536 +1349,546 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F25" s="7">
-        <v>11</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="6">
-        <v>1.25</v>
+        <v>4</v>
       </c>
       <c r="F26" s="7">
-        <v>27.5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E27" s="6">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="F27" s="7">
-        <v>55</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="6">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="7">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F29" s="7">
-        <v>38.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E30" s="6">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="F30" s="7">
-        <v>27.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F31" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1.25</v>
-      </c>
-      <c r="F31" s="7">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F32" s="7">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="6">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F33" s="7">
-        <v>33</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E34" s="6">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="F34" s="7">
-        <v>55</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="6">
-        <v>3.25</v>
-      </c>
-      <c r="F35" s="7">
-        <v>71.5</v>
-      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="E36" s="6">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="F36" s="7">
-        <v>55</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="6">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="F37" s="7">
-        <v>66</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="6">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="F38" s="7">
-        <v>38.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="F39" s="7">
-        <v>49.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="6">
-        <v>1</v>
+        <v>3.25</v>
       </c>
       <c r="F40" s="7">
-        <v>22</v>
+        <v>71.5</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="A41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="F41" s="7">
+        <v>55</v>
+      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E42" s="6">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="F42" s="7">
-        <v>16.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E43" s="6">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="F43" s="7">
-        <v>5.5</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="F44" s="7">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="B45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E44" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="F44" s="7">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1" t="s">
+      <c r="D45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
+      <c r="F45" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="F46" s="7">
-        <v>11</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E47" s="6">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F47" s="7">
-        <v>11</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E48" s="6">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="F48" s="7">
-        <v>33</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E49" s="6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F49" s="7">
-        <v>22</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="6">
-        <v>3</v>
-      </c>
-      <c r="F50" s="7">
-        <v>66</v>
-      </c>
+      <c r="A50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E51" s="6">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F51" s="7">
-        <v>27.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="D52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F52" s="7">
+        <v>11</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E53" s="6">
         <v>1.5</v>
@@ -1832,467 +1899,467 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E54" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" s="7">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E55" s="6">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F55" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="F56" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0.25</v>
-      </c>
-      <c r="F56" s="7">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="F57" s="7">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="D58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+      <c r="F58" s="7">
+        <v>22</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E59" s="6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F59" s="7">
-        <v>27.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E60" s="6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="F60" s="7">
-        <v>38.5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E61" s="6">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="F61" s="7">
-        <v>27.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E62" s="6">
-        <v>2.5</v>
+        <v>0.25</v>
       </c>
       <c r="F62" s="7">
-        <v>55</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E63" s="6">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F63" s="7">
-        <v>33</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="4" t="s">
+      <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E64" s="6">
-        <v>2.25</v>
-      </c>
-      <c r="F64" s="7">
-        <v>49.5</v>
-      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="4" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E65" s="6">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F65" s="7">
-        <v>27.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E66" s="6">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F66" s="7">
-        <v>33</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E67" s="6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F67" s="7">
-        <v>22</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>124</v>
       </c>
       <c r="E68" s="6">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F68" s="7">
-        <v>33</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="E69" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F69" s="7">
+        <v>38.5</v>
+      </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E70" s="6">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F70" s="7">
-        <v>22</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E71" s="6">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="F71" s="7">
-        <v>16.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E72" s="6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F72" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E73" s="6">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="F73" s="7">
-        <v>33</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E74" s="6">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F74" s="7">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E75" s="6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F75" s="7">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="6">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F76" s="7">
-        <v>5.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E77" s="6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F77" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2302,86 +2369,96 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E79" s="6">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F79" s="7">
-        <v>38.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="A80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F80" s="7">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E81" s="6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F81" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E82" s="6">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="F82" s="7">
-        <v>16.5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E83" s="6">
         <v>0.75</v>
@@ -2392,57 +2469,67 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E84" s="6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F84" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="A85" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E85" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F85" s="7">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E86" s="6">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F86" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2452,16 +2539,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E88" s="6">
         <v>1.75</v>
@@ -2471,151 +2558,403 @@
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E89" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="F89" s="7">
-        <v>16.5</v>
-      </c>
+      <c r="A89" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E90" s="6">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F90" s="7">
-        <v>16.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E91" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F91" s="7">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>9</v>
+        <v>151</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E92" s="6">
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="F92" s="7">
-        <v>49.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="C93" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E93" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F93" s="7">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F94" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F96" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F98" s="7">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F99" s="7">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F100" s="7">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="F101" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E102" s="6">
+        <v>2.25</v>
+      </c>
+      <c r="F102" s="7">
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E93" s="6">
+      <c r="D103" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E103" s="6">
         <v>1</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F103" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E95" s="6">
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E105" s="6">
         <v>0.5</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F105" s="7">
         <v>11</v>
       </c>
     </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" s="6">
+        <v>2</v>
+      </c>
+      <c r="F107" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="F108" s="7">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="F110" s="7">
+        <v>38.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A64:F64"/>
     <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A85:F85"/>
     <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A109:F109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
